--- a/mbs-perturbation/nano/elm/smote/nano_elm__smote_results.xlsx
+++ b/mbs-perturbation/nano/elm/smote/nano_elm__smote_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.06914893617021277</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.1187214611872146</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3458095655989469</v>
+        <v>0.3555452127659575</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3543751097068633</v>
+        <v>0.4153866738025154</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.28125</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004878048780487805</v>
+        <v>0.0481283422459893</v>
       </c>
       <c r="D4" t="n">
-        <v>0.009345794392523364</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3384284295331642</v>
+        <v>0.3692914438502674</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.06598984771573604</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.1165919282511211</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3217592592592593</v>
+        <v>0.4200106866150147</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.08530805687203792</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3400451887293993</v>
+        <v>0.4085388841016803</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02222222222222222</v>
+        <v>0.4292118768328446</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000975609756097561</v>
+        <v>0.06885017173593035</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001869158878504673</v>
+        <v>0.1184637762279076</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3400835105655265</v>
+        <v>0.393754580227087</v>
       </c>
     </row>
   </sheetData>
